--- a/SpringMVC+knockoutJS.xlsx
+++ b/SpringMVC+knockoutJS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="1598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="1605">
   <si>
     <t>Config</t>
     <phoneticPr fontId="2"/>
@@ -6346,16 +6346,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>③レスポンスのHTTPスタータスより画面へ遷移する</t>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>処理先</t>
     <rPh sb="0" eb="2">
       <t>ショリ</t>
@@ -6391,6 +6381,116 @@
   </si>
   <si>
     <t>ブラウザ側からの画面遷移</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③レスポンスのHTTPスタータスより画面へ遷移するか？</t>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③－①正常の場合、エラーメッセージ出力</t>
+    <rPh sb="3" eb="5">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③－①権限なしエラー画面へ遷移する</t>
+    <rPh sb="3" eb="5">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③－②指定ページ無し画面へ遷移する</t>
+    <rPh sb="3" eb="5">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>補足：その場合がないようです。原因：Tomcat側で処理された</t>
+    <rPh sb="0" eb="2">
+      <t>ホソク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>補足：その場合がないようです。原因：WebApp側で処理された</t>
+    <rPh sb="0" eb="2">
+      <t>ホソク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③－③セッションタイムアウト画面へ遷移する</t>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③－④システムエラー画面へ遷移する</t>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -9934,7 +10034,7 @@
   <dimension ref="A1:CJ731"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -23966,7 +24066,7 @@
   <dimension ref="A2:L396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23981,10 +24081,10 @@
         <v>1362</v>
       </c>
       <c r="B2" s="46" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C2" s="46" t="s">
         <v>1590</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>1591</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -23992,10 +24092,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -24003,10 +24103,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -24014,10 +24114,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -25273,13 +25373,16 @@
         <v>1526</v>
       </c>
       <c r="L301" s="42" t="s">
-        <v>1589</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="302" spans="3:12">
       <c r="C302" t="s">
         <v>1527</v>
       </c>
+      <c r="L302" s="42" t="s">
+        <v>1598</v>
+      </c>
     </row>
     <row r="303" spans="3:12">
       <c r="D303" t="s">
@@ -25291,165 +25394,183 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="305" spans="3:5">
+    <row r="305" spans="3:12">
       <c r="E305" t="s">
         <v>1530</v>
       </c>
     </row>
-    <row r="306" spans="3:5">
+    <row r="306" spans="3:12">
       <c r="D306" t="s">
         <v>1531</v>
       </c>
     </row>
-    <row r="307" spans="3:5">
+    <row r="307" spans="3:12">
       <c r="E307" t="s">
         <v>1579</v>
       </c>
     </row>
-    <row r="308" spans="3:5">
+    <row r="308" spans="3:12">
       <c r="D308" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="309" spans="3:5">
+    <row r="309" spans="3:12">
       <c r="D309" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="310" spans="3:5">
+    <row r="310" spans="3:12">
       <c r="C310" t="s">
         <v>1532</v>
       </c>
       <c r="D310" t="s">
         <v>1533</v>
       </c>
-    </row>
-    <row r="311" spans="3:5">
+      <c r="L310" s="42" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="311" spans="3:12">
       <c r="D311" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="312" spans="3:5">
+    <row r="312" spans="3:12">
       <c r="D312" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="313" spans="3:5">
+    <row r="313" spans="3:12">
       <c r="C313" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="314" spans="3:5">
+      <c r="L313" s="42" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="314" spans="3:12">
       <c r="D314" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="315" spans="3:5">
+      <c r="L314" s="42" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="315" spans="3:12">
       <c r="D315" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="316" spans="3:5">
+    <row r="316" spans="3:12">
       <c r="C316" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="317" spans="3:5">
+      <c r="L316" s="42" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="317" spans="3:12">
       <c r="D317" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="318" spans="3:5">
+      <c r="L317" s="42" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="318" spans="3:12">
       <c r="D318" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="319" spans="3:5">
+    <row r="319" spans="3:12">
       <c r="C319" t="s">
         <v>1536</v>
       </c>
     </row>
-    <row r="320" spans="3:5">
+    <row r="320" spans="3:12">
       <c r="D320" t="s">
         <v>1582</v>
       </c>
     </row>
-    <row r="321" spans="2:4">
+    <row r="321" spans="2:12">
       <c r="D321" t="s">
         <v>1537</v>
       </c>
     </row>
-    <row r="322" spans="2:4">
+    <row r="322" spans="2:12">
       <c r="C322" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="323" spans="2:4">
+      <c r="L322" s="42" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="323" spans="2:12">
       <c r="D323" t="s">
         <v>1583</v>
       </c>
     </row>
-    <row r="324" spans="2:4">
+    <row r="324" spans="2:12">
       <c r="C324" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="325" spans="2:4">
+    <row r="325" spans="2:12">
       <c r="B325" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="326" spans="2:4">
+    <row r="326" spans="2:12">
       <c r="B326" t="s">
         <v>1538</v>
       </c>
     </row>
-    <row r="327" spans="2:4">
+    <row r="327" spans="2:12">
       <c r="C327" t="s">
         <v>1529</v>
       </c>
     </row>
-    <row r="328" spans="2:4">
+    <row r="328" spans="2:12">
       <c r="C328" t="s">
         <v>1539</v>
       </c>
     </row>
-    <row r="329" spans="2:4">
+    <row r="329" spans="2:12">
       <c r="B329" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="330" spans="2:4">
+    <row r="330" spans="2:12">
       <c r="B330" t="s">
         <v>1540</v>
       </c>
     </row>
-    <row r="331" spans="2:4">
+    <row r="331" spans="2:12">
       <c r="C331" t="s">
         <v>1541</v>
       </c>
     </row>
-    <row r="332" spans="2:4">
+    <row r="332" spans="2:12">
       <c r="B332" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="333" spans="2:4">
+    <row r="333" spans="2:12">
       <c r="B333" t="s">
         <v>1542</v>
       </c>
     </row>
-    <row r="334" spans="2:4">
+    <row r="334" spans="2:12">
       <c r="C334" t="s">
         <v>1543</v>
       </c>
     </row>
-    <row r="335" spans="2:4">
+    <row r="335" spans="2:12">
       <c r="C335" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="336" spans="2:4">
+    <row r="336" spans="2:12">
       <c r="D336" t="s">
         <v>1544</v>
       </c>

--- a/SpringMVC+knockoutJS.xlsx
+++ b/SpringMVC+knockoutJS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7575"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7575" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="FW2" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="FW(CSS) " sheetId="5" r:id="rId4"/>
     <sheet name="環境構築" sheetId="6" r:id="rId5"/>
     <sheet name="エラー遷移" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
+    <sheet name="KO" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'FW(JAVA)'!$A$1:$CK$289</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="1605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="1709">
   <si>
     <t>Config</t>
     <phoneticPr fontId="2"/>
@@ -6493,12 +6493,772 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>・myObservableArray.push('新しい値') 　 配列の末尾に要素を追加します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・myObservableArray.pop() 　 配列から末尾の要素を削除・返却します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・myObservableArray.unshift('新しい値') 　 配列の先頭に要素を挿入します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・myObservableArray.shift()　 配列から先頭の要素を削除・返却します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・myObservableArray.reverse() 　 配列の要素順を反転します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・myObservableArray.sort() 　 配列の要素をソートします。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・myObservableArray.splice(startIndex, length) </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　startIndex に位置する要素から length 個分の要素を配列から削除・返却します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１）挿入</t>
+    <rPh sb="2" eb="4">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>var nextUser = ko.utils.arrayFirst(self.dataModel.lstUser(), function (item) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return item.userid &gt; newUserInfo.userid;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        });</t>
+  </si>
+  <si>
+    <t>var idx;</t>
+  </si>
+  <si>
+    <t>// 新ユーザ情報のユーザIDが最大の場合</t>
+  </si>
+  <si>
+    <t>if(nextUser == null){</t>
+  </si>
+  <si>
+    <t>self.dataModel.lstUser.push(newUserInfo);</t>
+  </si>
+  <si>
+    <t>idx = self.dataModel.lstUser().length - 1;</t>
+  </si>
+  <si>
+    <t>idx = self.dataModel.lstUser().indexOf(nextUser);</t>
+  </si>
+  <si>
+    <t>// ユーザ情報を指定場所に挿入する</t>
+  </si>
+  <si>
+    <t>self.dataModel.lstUser.splice(idx, 0, newUserInfo);</t>
+  </si>
+  <si>
+    <t>// 選択行の背景色を設定する</t>
+  </si>
+  <si>
+    <t>$selectedRow = $($('#tbl_user tbody tr')[idx]);</t>
+  </si>
+  <si>
+    <t>//コントロールのIDよりTRのクリックイベントをバインドする</t>
+  </si>
+  <si>
+    <t>$selectedRow.click(function() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    $('#tbl_user tbody tr').removeClass('selected');</t>
+  </si>
+  <si>
+    <t>// 既存の選択行の色を削除</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    $(this).addClass('selected');</t>
+  </si>
+  <si>
+    <t>// 現時点の選択行の色を追加</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>$('#tbl_user tbody tr').removeClass('selected');</t>
+  </si>
+  <si>
+    <t>$selectedRow.addClass('selected');</t>
+  </si>
+  <si>
+    <t>// ①JS:選択行の色を付ける ②KO:$root.doSelectUserを呼び出す</t>
+  </si>
+  <si>
+    <t>$selectedRow.click();</t>
+  </si>
+  <si>
+    <t>//var newUserInfo = ko.toJS(new longchamp.model.data.UserInfo(self.dataModel.selectedUser()));</t>
+  </si>
+  <si>
+    <t>var newUserInfo = ko.toJS(self.dataModel.selectedUser());</t>
+  </si>
+  <si>
+    <r>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你可以得到一个干</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>净</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的和Knockout无关的数据copy。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>// ko.toJS — 克隆你的view model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>象，并且替</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>换</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所有的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[包括observable] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当前的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2)更新</t>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>// ユーザ情報更新「既存ユーザ情報を削除し、新ユーザ情報を入れる」</t>
+  </si>
+  <si>
+    <t>self.dataModel.lstUser.splice(self.dataModel.selectedIndex, 1, newUserInfo);</t>
+  </si>
+  <si>
+    <t>$selectedRow = $($('#tbl_user tbody tr')[self.dataModel.selectedIndex]);</t>
+  </si>
+  <si>
+    <t>・remove と removeAll</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">１．yObservableArray.remove(someItem) </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>someItem に一致する要素を全て削除し、それらを配列として返却します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.myObservableArray.remove(function(item) { return item.age &lt; 18 } ) </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロパティ age が18 より小さい要素を全て削除し、それらを配列として返却します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.myObservableArray.removeAll(['Chad', 132, undefined]) </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Chad', 123, undefined に一致する要素を全て削除し、それらを配列として返却します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4.myObservableArray.removeAll() </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全ての要素を削除し、それらを配列として返却します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例：</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>self.dataModel.lstUser.remove(userInfo);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・Clone、タイプ変換</t>
+    <rPh sb="10" eb="12">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１．Clone</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>方法①：new</t>
+    <rPh sb="0" eb="2">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>//var newUserInfo = ko.toJS(new longchamp.model.data.UserInfo(self.dataModel.selectedUser()));</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>var newUserInfo = new longchamp.model.data.UserInfo(self.dataModel.selectedUser());</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>方法②：ko.toJS</t>
+    <rPh sb="0" eb="2">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>// self.dataModel.selectedUser(userInfo);</t>
+  </si>
+  <si>
+    <t>// var curUserInfo = ko.toJS(new longchamp.model.data.UserInfo(userInfo));</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> var curUserInfo = ko.toJS(userInfo);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> self.dataModel.selectedUser(curUserInfo);</t>
+  </si>
+  <si>
+    <t>// update by zhangwei 20170808 「lstUserのユーザ情報を影響に与えないため」 end</t>
+  </si>
+  <si>
+    <t>self.dataModel.selectedIndex = self.dataModel.lstUser().indexOf(userInfo);;</t>
+  </si>
+  <si>
+    <t>self.processing.doSelectedUser = false;</t>
+  </si>
+  <si>
+    <t>// update by zhangwei 20170808 「lstUserのユーザ情報を影響に与えないため」 start</t>
+  </si>
+  <si>
+    <t>// ｂｙRef</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2.タイプ変更</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ko.toJS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>オブジェクト「observable、非observable　両方とも」の値をコピーし、JSのデータに生成する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（Clone)</t>
+    </r>
+    <rPh sb="18" eb="19">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ko.toJSON</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JSのデータをJSON文字列に変換する</t>
+    <rPh sb="11" eb="14">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・JSON.parse</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・JSON.stringify</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※JSのデータ：observableクラスではなく、且つ、observableプロパティを含めない</t>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オブジェクト「observable、非observable　両方とも」をJSON文字列に変換する</t>
+    <rPh sb="40" eb="43">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ko.mappingプラグイン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>var data = [{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Id: "123",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FirstName: "Jack",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LastName: "Tim",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Schedule: [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { Date: "2015-7-5",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Event: "Visit Customer"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { Date: "2015-7-6",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Event: "Company Party"},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ]</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Id: "110",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FirstName: "Tony",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LastName: "Alan",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Event: "1:1 Talk with my boss"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Event: "Attend business meeting"},</t>
+  </si>
+  <si>
+    <t>}];</t>
+  </si>
+  <si>
+    <r>
+      <t>var unmapped = ko</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.mapping.toJS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.newData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF880000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２）ko.mapping.toJS　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>把observable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>原成原来的JS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>象</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（＝ko.toJS)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">self.newData = ko.mapping.fromJS(data); </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１）ko.mapping.fromJS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>可以快速将js或JSON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>象完全地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>转</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>化成Observable</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・observableArray に対する変更</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="37">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6768,6 +7528,73 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF880000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -6847,7 +7674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6903,6 +7730,11 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -10033,7 +10865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CJ731"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -14040,8 +14872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CJ1199"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A325" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="AA342" sqref="AA342"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A310" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C317" sqref="C317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -14423,7 +15255,7 @@
       <c r="AK297" s="14"/>
     </row>
     <row r="317" spans="3:3">
-      <c r="C317" s="12" t="s">
+      <c r="C317" s="15" t="s">
         <v>409</v>
       </c>
     </row>
@@ -18922,8 +19754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CJ673"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A139" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AD155" sqref="AD155"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A157" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B157" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -25853,14 +26685,700 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AG130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S137" sqref="S137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="A1" s="41" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="B3" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="C4" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="B5" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="D6" s="42" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="D7" s="42" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="D8" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="B9" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="F10" t="s">
+        <v>1663</v>
+      </c>
+      <c r="AE10" s="48" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="F11" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="F12" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="F13" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="F14" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="F15" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="F16" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
+      <c r="A18" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="B19" s="50" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
+      <c r="B20" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
+      <c r="C21" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="B22" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="C23" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
+      <c r="B24" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
+      <c r="C25" t="s">
+        <v>1675</v>
+      </c>
+      <c r="AG25" s="44"/>
+    </row>
+    <row r="26" spans="1:33">
+      <c r="B26" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
+      <c r="C27" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
+      <c r="B28" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
+      <c r="C29" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33">
+      <c r="D30" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="C31" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="E32" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5">
+      <c r="E44" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5">
+      <c r="E45" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5">
+      <c r="E46" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5">
+      <c r="E47" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5">
+      <c r="E48" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="E49" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="E50" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="E51" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="E52" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="E53" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="E54" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="E55" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="D57" t="s">
+        <v>1702</v>
+      </c>
+      <c r="N57" s="42" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="F58" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15">
+      <c r="E59" s="51" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="18.75">
+      <c r="A61" s="47" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="B70" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="B71" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="D72" s="42" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="D73" s="42" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="B74" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="E75" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="C76" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="C77" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="E78" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="E79" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="E80" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="81" spans="5:13">
+      <c r="F81" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="82" spans="5:13">
+      <c r="F82" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="83" spans="5:13">
+      <c r="E83" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="84" spans="5:13">
+      <c r="F84" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="85" spans="5:13">
+      <c r="F85" s="44" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="86" spans="5:13">
+      <c r="F86" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="87" spans="5:13">
+      <c r="E87" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="89" spans="5:13">
+      <c r="E89" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="90" spans="5:13">
+      <c r="E90" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="91" spans="5:13">
+      <c r="E91" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="92" spans="5:13">
+      <c r="E92" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="93" spans="5:13">
+      <c r="E93" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="94" spans="5:13">
+      <c r="E94" t="s">
+        <v>1631</v>
+      </c>
+      <c r="M94" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="95" spans="5:13">
+      <c r="E95" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13">
+      <c r="B97" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13">
+      <c r="B98" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1635</v>
+      </c>
+      <c r="M98" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13">
+      <c r="E99" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13">
+      <c r="E100" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13">
+      <c r="B102" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13">
+      <c r="D103" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13">
+      <c r="D104" s="42" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="42"/>
+    </row>
+    <row r="105" spans="2:13">
+      <c r="D105" s="42" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E105" s="42"/>
+      <c r="F105" s="42"/>
+      <c r="G105" s="42"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="42"/>
+      <c r="J105" s="42"/>
+    </row>
+    <row r="106" spans="2:13">
+      <c r="F106" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13">
+      <c r="F107" s="42" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="108" spans="2:13">
+      <c r="F108" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="109" spans="2:13">
+      <c r="F109" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13">
+      <c r="F110" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13">
+      <c r="F111" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="112" spans="2:13">
+      <c r="F112" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="F113" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="F114" t="s">
+        <v>1629</v>
+      </c>
+      <c r="I114" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="F115" t="s">
+        <v>1631</v>
+      </c>
+      <c r="N115" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="F116" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="B119" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="C120" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="B121" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="C122" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="B123" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="C124" s="49" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="B125" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="C126" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="B128" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SpringMVC+knockoutJS.xlsx
+++ b/SpringMVC+knockoutJS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="1709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="1708">
   <si>
     <t>Config</t>
     <phoneticPr fontId="2"/>
@@ -6603,9 +6603,6 @@
   </si>
   <si>
     <t>$selectedRow.click();</t>
-  </si>
-  <si>
-    <t>//var newUserInfo = ko.toJS(new longchamp.model.data.UserInfo(self.dataModel.selectedUser()));</t>
   </si>
   <si>
     <t>var newUserInfo = ko.toJS(self.dataModel.selectedUser());</t>
@@ -6879,14 +6876,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>//var newUserInfo = ko.toJS(new longchamp.model.data.UserInfo(self.dataModel.selectedUser()));</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>var newUserInfo = new longchamp.model.data.UserInfo(self.dataModel.selectedUser());</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>方法②：ko.toJS</t>
     <rPh sb="0" eb="2">
       <t>ホウホウ</t>
@@ -6895,9 +6884,6 @@
   </si>
   <si>
     <t>// self.dataModel.selectedUser(userInfo);</t>
-  </si>
-  <si>
-    <t>// var curUserInfo = ko.toJS(new longchamp.model.data.UserInfo(userInfo));</t>
   </si>
   <si>
     <t xml:space="preserve"> var curUserInfo = ko.toJS(userInfo);</t>
@@ -7252,6 +7238,15 @@
   <si>
     <t>・observableArray に対する変更</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>var newUserInfo = new jpbook.model.data.UserInfo(self.dataModel.selectedUser());</t>
+  </si>
+  <si>
+    <t>// var curUserInfo = ko.toJS(new jpbook.model.data.UserInfo(userInfo));</t>
+  </si>
+  <si>
+    <t>//var newUserInfo = ko.toJS(new jpbook.model.data.UserInfo(self.dataModel.selectedUser()));</t>
   </si>
 </sst>
 </file>
@@ -26687,40 +26682,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S137" sqref="S137"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" s="41" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="3" spans="1:31">
       <c r="B3" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="4" spans="1:31">
       <c r="C4" t="s">
-        <v>1661</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="5" spans="1:31">
       <c r="B5" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="6" spans="1:31">
       <c r="D6" s="42" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
@@ -26733,7 +26726,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="D7" s="42" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="42"/>
@@ -26746,177 +26739,177 @@
     </row>
     <row r="8" spans="1:31">
       <c r="D8" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="9" spans="1:31">
       <c r="B9" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="F9" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="10" spans="1:31">
       <c r="F10" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="AE10" s="48" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="11" spans="1:31">
       <c r="F11" t="s">
-        <v>1664</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="12" spans="1:31">
       <c r="F12" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="13" spans="1:31">
       <c r="F13" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="14" spans="1:31">
       <c r="F14" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="15" spans="1:31">
       <c r="F15" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="16" spans="1:31">
       <c r="F16" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="18" spans="1:33">
       <c r="A18" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="19" spans="1:33">
       <c r="B19" s="50" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="20" spans="1:33">
       <c r="B20" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="21" spans="1:33">
       <c r="C21" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="22" spans="1:33">
       <c r="B22" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="23" spans="1:33">
       <c r="C23" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="24" spans="1:33">
       <c r="B24" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="25" spans="1:33">
       <c r="C25" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="AG25" s="44"/>
     </row>
     <row r="26" spans="1:33">
       <c r="B26" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="27" spans="1:33">
       <c r="C27" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="28" spans="1:33">
       <c r="B28" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="29" spans="1:33">
       <c r="C29" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="30" spans="1:33">
       <c r="D30" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="31" spans="1:33">
       <c r="C31" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="E31" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="32" spans="1:33">
       <c r="E32" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="42" spans="5:5">
@@ -26926,90 +26919,90 @@
     </row>
     <row r="43" spans="5:5">
       <c r="E43" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="44" spans="5:5">
       <c r="E44" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="45" spans="5:5">
       <c r="E45" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="46" spans="5:5">
       <c r="E46" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="47" spans="5:5">
       <c r="E47" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="48" spans="5:5">
       <c r="E48" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="E49" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="E50" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="E51" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="E52" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="E53" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="E54" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="E55" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="D57" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="N57" s="42" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="F58" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15">
       <c r="E59" s="51" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="18.75">
       <c r="A61" s="47" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -27059,12 +27052,12 @@
     </row>
     <row r="71" spans="1:10">
       <c r="B71" t="s">
-        <v>1660</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="D72" s="42" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E72" s="42"/>
       <c r="F72" s="42"/>
@@ -27075,7 +27068,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="D73" s="42" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="E73" s="42"/>
       <c r="F73" s="42"/>
@@ -27086,7 +27079,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="B74" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -27229,17 +27222,17 @@
     </row>
     <row r="102" spans="2:13">
       <c r="B102" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="103" spans="2:13">
       <c r="D103" t="s">
-        <v>1638</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="104" spans="2:13">
       <c r="D104" s="42" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E104" s="42"/>
       <c r="F104" s="42"/>
@@ -27250,7 +27243,7 @@
     </row>
     <row r="105" spans="2:13">
       <c r="D105" s="42" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="E105" s="42"/>
       <c r="F105" s="42"/>
@@ -27261,17 +27254,17 @@
     </row>
     <row r="106" spans="2:13">
       <c r="F106" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="107" spans="2:13">
       <c r="F107" s="42" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="108" spans="2:13">
       <c r="F108" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="109" spans="2:13">
@@ -27281,7 +27274,7 @@
     </row>
     <row r="110" spans="2:13">
       <c r="F110" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="111" spans="2:13">
@@ -27322,60 +27315,60 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="119" spans="1:14">
       <c r="B119" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="C120" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="121" spans="1:14">
       <c r="B121" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="122" spans="1:14">
       <c r="C122" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="123" spans="1:14">
       <c r="B123" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="C124" s="49" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="125" spans="1:14">
       <c r="B125" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="126" spans="1:14">
       <c r="C126" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="B128" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D128" t="s">
         <v>1655</v>
-      </c>
-      <c r="D128" t="s">
-        <v>1656</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
     </row>
   </sheetData>

--- a/SpringMVC+knockoutJS.xlsx
+++ b/SpringMVC+knockoutJS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="1708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="1709">
   <si>
     <t>Config</t>
     <phoneticPr fontId="2"/>
@@ -6966,10 +6966,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・JSON.parse</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・JSON.stringify</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -7247,6 +7243,17 @@
   </si>
   <si>
     <t>//var newUserInfo = ko.toJS(new jpbook.model.data.UserInfo(self.dataModel.selectedUser()));</t>
+  </si>
+  <si>
+    <t>・JSON.parse</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JSON文字列をJSのデータに変換する</t>
+    <rPh sb="15" eb="17">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -14867,7 +14874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CJ1199"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A310" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A277" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="C317" sqref="C317"/>
     </sheetView>
   </sheetViews>
@@ -19749,7 +19756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CJ673"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A157" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B157" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -23751,8 +23758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:CJ687"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="AG75" sqref="AG75"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="BS41" sqref="BS41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -26682,7 +26689,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="AE31" sqref="AE31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <sheetData>
@@ -26703,7 +26712,7 @@
     </row>
     <row r="4" spans="1:31">
       <c r="C4" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -26760,7 +26769,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="F11" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -26795,12 +26804,12 @@
     </row>
     <row r="19" spans="1:33">
       <c r="B19" s="50" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="20" spans="1:33">
       <c r="B20" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="21" spans="1:33">
@@ -26810,12 +26819,12 @@
     </row>
     <row r="22" spans="1:33">
       <c r="B22" t="s">
-        <v>1674</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="23" spans="1:33">
       <c r="C23" t="s">
-        <v>1673</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -26836,22 +26845,22 @@
     </row>
     <row r="27" spans="1:33">
       <c r="C27" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="28" spans="1:33">
       <c r="B28" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="29" spans="1:33">
       <c r="C29" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="30" spans="1:33">
       <c r="D30" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="31" spans="1:33">
@@ -26859,57 +26868,57 @@
         <v>1654</v>
       </c>
       <c r="E31" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="32" spans="1:33">
       <c r="E32" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="42" spans="5:5">
@@ -26919,90 +26928,90 @@
     </row>
     <row r="43" spans="5:5">
       <c r="E43" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="44" spans="5:5">
       <c r="E44" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="45" spans="5:5">
       <c r="E45" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="46" spans="5:5">
       <c r="E46" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="47" spans="5:5">
       <c r="E47" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="48" spans="5:5">
       <c r="E48" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="E49" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="E50" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="E51" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="E52" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="E53" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="E54" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="E55" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="D57" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="N57" s="42" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="F58" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15">
       <c r="E59" s="51" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="18.75">
       <c r="A61" s="47" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -27052,7 +27061,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="B71" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -27227,7 +27236,7 @@
     </row>
     <row r="103" spans="2:13">
       <c r="D103" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="104" spans="2:13">
